--- a/xlsx/美国语言_intext.xlsx
+++ b/xlsx/美国语言_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国语言</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E5%90%90%E6%BA%AB</t>
   </si>
   <si>
-    <t>馬克·吐溫</t>
+    <t>马克·吐温</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E7%9A%84%E6%91%A9%E5%A4%AA%E9%98%B3%E6%8A%A5</t>
@@ -71,31 +71,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E4%BA%9E%C2%B7%E9%9F%8B%E4%BC%AF%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>諾亞·韋伯斯特</t>
+    <t>诺亚·韦伯斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E8%A9%B9%E6%A3%AE</t>
   </si>
   <si>
-    <t>塞繆爾·詹森</t>
+    <t>塞缪尔·詹森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
+    <t>语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E7%99%BB%E4%B9%A6%E5%B1%8B</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/Google%E5%9C%96%E6%9B%B8</t>
   </si>
   <si>
-    <t>Google圖書</t>
+    <t>Google图书</t>
   </si>
 </sst>
 </file>
